--- a/data/trans_bre/P16A07-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A07-Provincia-trans_bre.xlsx
@@ -539,7 +539,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido antidepresivos en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos antidepresivos en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_bre/P16A07-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A07-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>5.755030295316449</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3.198716564090145</v>
+        <v>3.198716564090144</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>2.411335849032713</v>
@@ -649,7 +649,7 @@
         <v>2.063207194963604</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>2.357128061849733</v>
+        <v>2.357128061849732</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.116148641256038</v>
+        <v>1.969190300132465</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1180462716481526</v>
+        <v>-0.2423208225356376</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.360662871376144</v>
+        <v>2.268158481390587</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.112898948667036</v>
+        <v>1.221867430833908</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.4229550722319838</v>
+        <v>0.4044132860955664</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.04648698759726108</v>
+        <v>-0.1230599043141261</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3987859916818497</v>
+        <v>0.354051003928766</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.3754622889484872</v>
+        <v>0.3601614680216292</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.625462912400108</v>
+        <v>10.00334336365045</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.036179851327907</v>
+        <v>7.577423495873655</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.824740856257849</v>
+        <v>10.40824825347754</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.310101575397272</v>
+        <v>5.302520377184117</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>7.380634745945403</v>
+        <v>7.930585753304657</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3.661988990579326</v>
+        <v>3.580302013773414</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>6.263247462621189</v>
+        <v>6.083271384800554</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>9.560299840469263</v>
+        <v>8.954614676664603</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.877494606238097</v>
+        <v>3.077237935860695</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.810838024208332</v>
+        <v>2.294067548824034</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.617984753425066</v>
+        <v>2.388400334856664</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.054522531556402</v>
+        <v>2.944541087281225</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>1.704267770144134</v>
+        <v>1.84226973379092</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5852227330563023</v>
+        <v>0.2950161728597166</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.848902379154272</v>
+        <v>0.8407217181295019</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.5076867091609962</v>
+        <v>0.4820817918615805</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.458371289820896</v>
+        <v>7.750781846628511</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.605508114330739</v>
+        <v>8.530464380159799</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.292353314443499</v>
+        <v>7.512363554090888</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8.290380985284136</v>
+        <v>8.501971202715659</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>28.89951457313806</v>
+        <v>30.35241157814094</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>6.407626677546829</v>
+        <v>6.281026147745313</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>9.026741427062188</v>
+        <v>10.87597754828789</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>3.425069343886121</v>
+        <v>3.438866912044982</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>3.47904738269901</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4.028580825887247</v>
+        <v>4.028580825887248</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>2.836052848017937</v>
@@ -849,7 +849,7 @@
         <v>4.929929690666554</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.7081623467185624</v>
+        <v>0.7081623467185628</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.9816972691989831</v>
+        <v>1.02586652598243</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.185128741641102</v>
+        <v>1.390242164692635</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.019116667289171</v>
+        <v>1.310033404144827</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1240299359238356</v>
+        <v>0.531721099628274</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.06461279385172002</v>
+        <v>0.01775373033449933</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1711659254267429</v>
+        <v>0.1892509837944561</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1404449243095464</v>
+        <v>0.3027929992273458</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.0006460739679266796</v>
+        <v>0.03727933817141801</v>
       </c>
     </row>
     <row r="12">
@@ -892,26 +892,26 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.013834068379344</v>
+        <v>6.142888031216947</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>9.252703453442388</v>
+        <v>8.890228015660009</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.223380689924706</v>
+        <v>6.371496724829197</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.37801733124637</v>
+        <v>7.297948442349288</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>16.22235874278038</v>
+        <v>15.47937948795457</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>3.660423294506322</v>
+        <v>3.56638299345418</v>
       </c>
       <c r="I12" s="6" t="inlineStr"/>
       <c r="J12" s="6" t="n">
-        <v>1.815076660845179</v>
+        <v>1.850243778903863</v>
       </c>
     </row>
     <row r="13">
@@ -947,7 +947,7 @@
         <v>2.811938710601167</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.2583285234624366</v>
+        <v>0.2583285234624365</v>
       </c>
     </row>
     <row r="14">
@@ -958,28 +958,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.612365441686755</v>
+        <v>1.719073942674802</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>5.716880167732027</v>
+        <v>5.437279113169907</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.295327069683597</v>
+        <v>2.415640795094823</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.292233908530783</v>
+        <v>-2.194186756338093</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5442650919635744</v>
+        <v>0.5137329879973447</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1.994404332696546</v>
+        <v>2.056364695823599</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6408303057570739</v>
+        <v>0.536735027656752</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.360492666970948</v>
+        <v>-0.3469332729038749</v>
       </c>
     </row>
     <row r="15">
@@ -990,28 +990,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.967891037411222</v>
+        <v>6.443956376632257</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>12.13986700794388</v>
+        <v>12.22603311425106</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8.181453240488652</v>
+        <v>8.223066274084175</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.922663781998208</v>
+        <v>4.149004760649005</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>21.30979950864119</v>
+        <v>22.16063710471339</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>19.38574681085744</v>
+        <v>20.33005595087234</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>8.63732667788689</v>
+        <v>8.341160672037354</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.624731616357531</v>
+        <v>1.61620398405945</v>
       </c>
     </row>
     <row r="16">
@@ -1035,7 +1035,7 @@
         <v>3.585315191866127</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3.817766518816731</v>
+        <v>3.817766518816729</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>1.576910840648764</v>
@@ -1047,7 +1047,7 @@
         <v>0.6464493686903087</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>3.327565211707903</v>
+        <v>3.327565211707902</v>
       </c>
     </row>
     <row r="17">
@@ -1058,28 +1058,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.315487599703384</v>
+        <v>1.931471489935464</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>7.251679642124746</v>
+        <v>7.003930049262682</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.328229230753677</v>
+        <v>-1.551409320890399</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.487050221153281</v>
+        <v>1.657736571903792</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2748009919782536</v>
+        <v>0.2631537991665241</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>1.281537831606147</v>
+        <v>1.172126033522656</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.2113307858576912</v>
+        <v>-0.2124573135762598</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.3164217333691815</v>
+        <v>0.5360935284327178</v>
       </c>
     </row>
     <row r="18">
@@ -1090,28 +1090,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.52870638156289</v>
+        <v>12.59986262255137</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>18.62702922196882</v>
+        <v>17.95921023959704</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.306372528722509</v>
+        <v>8.374860505197743</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.051268253192307</v>
+        <v>6.124597403590347</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>5.166164867794526</v>
+        <v>5.042778727418178</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>13.28968461500621</v>
+        <v>13.56260471893353</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2.446746739052398</v>
+        <v>2.589548796915813</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>16.42701550277499</v>
+        <v>17.31759208193051</v>
       </c>
     </row>
     <row r="19">
@@ -1135,7 +1135,7 @@
         <v>7.442483957234661</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>1.337473770453344</v>
+        <v>1.337473770453341</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>3.253023133520825</v>
@@ -1147,7 +1147,7 @@
         <v>7.076785956185682</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.2763623479090888</v>
+        <v>0.2763623479090881</v>
       </c>
     </row>
     <row r="20">
@@ -1158,28 +1158,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.250336212451884</v>
+        <v>0.3614495736148827</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.165611582401117</v>
+        <v>1.418160747930571</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3.95500094864791</v>
+        <v>4.233446385075956</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-2.032950186140882</v>
+        <v>-1.862511736131461</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4638367310494795</v>
+        <v>-0.1666803580338711</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1491095142447968</v>
+        <v>0.2209590887368108</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9572835864290286</v>
+        <v>1.366972255374461</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3103887210977467</v>
+        <v>-0.286314027691527</v>
       </c>
     </row>
     <row r="21">
@@ -1190,26 +1190,26 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>4.929158945887375</v>
+        <v>5.446554017556735</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>9.413226682764273</v>
+        <v>9.305534966505332</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>11.10797569089672</v>
+        <v>11.09584570214749</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>4.014734687752754</v>
+        <v>4.320214526296063</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="n">
-        <v>4.705265014744028</v>
+        <v>4.515761331038128</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>31.00103398321941</v>
+        <v>28.42791612356734</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.192568550842571</v>
+        <v>1.338813671655869</v>
       </c>
     </row>
     <row r="22">
@@ -1245,7 +1245,7 @@
         <v>2.672720186933489</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.9962531614007676</v>
+        <v>0.9962531614007678</v>
       </c>
     </row>
     <row r="23">
@@ -1256,28 +1256,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>3.403900352013472</v>
+        <v>3.27435012657517</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2138690475141304</v>
+        <v>0.4148330370608783</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.805798310912452</v>
+        <v>1.868686629322393</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.995009682658831</v>
+        <v>2.281330210478823</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1.138121327939114</v>
+        <v>1.021876705830229</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01329206547398751</v>
+        <v>0.0496098231187805</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6158315799959106</v>
+        <v>0.6461724077497821</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.3251160616150046</v>
+        <v>0.3793716397635932</v>
       </c>
     </row>
     <row r="24">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.743772768096832</v>
+        <v>7.80035101984222</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.534619154168852</v>
+        <v>6.023266136291293</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.105122464842829</v>
+        <v>6.137275306535853</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.984951286338202</v>
+        <v>7.030978838683288</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>6.101520618827625</v>
+        <v>5.966314653770396</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.706165262380771</v>
+        <v>1.876168495268133</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>8.274366051716406</v>
+        <v>7.318678375232072</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>2.086453945509</v>
+        <v>2.033938679230885</v>
       </c>
     </row>
     <row r="25">
@@ -1333,7 +1333,7 @@
         <v>5.459162069797489</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>5.840747669345623</v>
+        <v>5.840747669345622</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.7462805999007784</v>
@@ -1345,7 +1345,7 @@
         <v>1.67127490302067</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>3.012353630198357</v>
+        <v>3.012353630198355</v>
       </c>
     </row>
     <row r="26">
@@ -1356,28 +1356,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.6829322533066405</v>
+        <v>0.7067879908677246</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>1.658519379434809</v>
+        <v>1.748117727232399</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2.897913533005882</v>
+        <v>3.21622456938162</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3.963603350838517</v>
+        <v>4.062738517074173</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1300326691688299</v>
+        <v>0.1286630738622818</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3866356432152337</v>
+        <v>0.3901081481885524</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6794877170079835</v>
+        <v>0.6565584973011991</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>1.423552181691898</v>
+        <v>1.409483812178627</v>
       </c>
     </row>
     <row r="27">
@@ -1388,28 +1388,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>5.440298486903672</v>
+        <v>5.343728441072018</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>6.048582286692428</v>
+        <v>5.871742838290707</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>8.003865826948418</v>
+        <v>8.315578477941942</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>7.605185525813931</v>
+        <v>7.603513834156199</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.80083545614102</v>
+        <v>1.743699012584806</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>3.347666998646964</v>
+        <v>3.109154774919971</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>3.39848009482893</v>
+        <v>3.258417195553993</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>5.395403354070255</v>
+        <v>6.052654273850009</v>
       </c>
     </row>
     <row r="28">
@@ -1456,28 +1456,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>3.395792087647219</v>
+        <v>3.39518189521986</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>4.104312447965839</v>
+        <v>3.960478263885763</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3.870485447226018</v>
+        <v>3.889409551329162</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3.322469341867423</v>
+        <v>3.179765028200274</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>1.297666808556689</v>
+        <v>1.321036077538382</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>1.084142644611688</v>
+        <v>1.020214152398302</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>1.488023451829572</v>
+        <v>1.498525595719035</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.8287377365617876</v>
+        <v>0.8208718964646869</v>
       </c>
     </row>
     <row r="30">
@@ -1488,28 +1488,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.316635208909421</v>
+        <v>5.371118339755648</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>6.347291713494703</v>
+        <v>6.271620343190808</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5.908975444070165</v>
+        <v>6.005516167170255</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5.141270137897526</v>
+        <v>5.178474738591185</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>2.949560017332101</v>
+        <v>3.096555725901951</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>2.340639235810836</v>
+        <v>2.320374566639767</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>3.206510637717592</v>
+        <v>3.28197155445494</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>1.677008154108517</v>
+        <v>1.743321879638269</v>
       </c>
     </row>
     <row r="31">
